--- a/payroll.xlsx
+++ b/payroll.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>EMPLOYEE_ID</t>
   </si>
@@ -52,16 +52,49 @@
     <t>NET PAY</t>
   </si>
   <si>
-    <t>91486</t>
-  </si>
-  <si>
-    <t>91512</t>
-  </si>
-  <si>
-    <t>91545</t>
-  </si>
-  <si>
-    <t>91645</t>
+    <t>91209</t>
+  </si>
+  <si>
+    <t>91210</t>
+  </si>
+  <si>
+    <t>91296</t>
+  </si>
+  <si>
+    <t>91369</t>
+  </si>
+  <si>
+    <t>91380</t>
+  </si>
+  <si>
+    <t>91400</t>
+  </si>
+  <si>
+    <t>91423</t>
+  </si>
+  <si>
+    <t>91490</t>
+  </si>
+  <si>
+    <t>91493</t>
+  </si>
+  <si>
+    <t>91511</t>
+  </si>
+  <si>
+    <t>91581</t>
+  </si>
+  <si>
+    <t>91582</t>
+  </si>
+  <si>
+    <t>91585</t>
+  </si>
+  <si>
+    <t>91627</t>
+  </si>
+  <si>
+    <t>91629</t>
   </si>
 </sst>
 </file>
@@ -393,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -442,37 +475,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>25067.03</v>
+        <v>18456.78</v>
       </c>
       <c r="C2">
-        <v>12567.03</v>
+        <v>8336.75</v>
       </c>
       <c r="D2">
-        <v>900</v>
+        <v>720</v>
       </c>
       <c r="E2">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1900</v>
+        <v>1520</v>
       </c>
       <c r="G2">
         <v>30</v>
       </c>
       <c r="H2">
-        <v>625</v>
+        <v>397.78</v>
       </c>
       <c r="I2">
         <v>100</v>
       </c>
       <c r="J2">
-        <v>23146.01</v>
+        <v>17239</v>
       </c>
       <c r="K2">
-        <v>346.95</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>10370.08</v>
+        <v>7118.97</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -480,10 +513,10 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>18198.15</v>
+        <v>15802.98</v>
       </c>
       <c r="C3">
-        <v>9194.290000000001</v>
+        <v>7454.79</v>
       </c>
       <c r="D3">
         <v>720</v>
@@ -498,19 +531,19 @@
         <v>30</v>
       </c>
       <c r="H3">
-        <v>400</v>
+        <v>397.78</v>
       </c>
       <c r="I3">
         <v>100</v>
       </c>
       <c r="J3">
-        <v>16978.15</v>
+        <v>14585.2</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7974.29</v>
+        <v>6237.01</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -518,37 +551,37 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>14602.78</v>
+        <v>16408.36</v>
       </c>
       <c r="C4">
-        <v>7599.28</v>
+        <v>7522.86</v>
       </c>
       <c r="D4">
-        <v>630</v>
+        <v>810</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1330</v>
+        <v>1710</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H4">
-        <v>350.18</v>
+        <v>444.28</v>
       </c>
       <c r="I4">
         <v>100</v>
       </c>
       <c r="J4">
-        <v>13522.6</v>
+        <v>15054.08</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6519.1</v>
+        <v>6168.58</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -556,16 +589,16 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>29971.25</v>
+        <v>18731.91</v>
       </c>
       <c r="C5">
-        <v>14971.25</v>
+        <v>11924.19</v>
       </c>
       <c r="D5">
         <v>900</v>
       </c>
       <c r="E5">
-        <v>450</v>
+        <v>382.5</v>
       </c>
       <c r="F5">
         <v>1900</v>
@@ -574,19 +607,437 @@
         <v>30</v>
       </c>
       <c r="H5">
-        <v>750</v>
+        <v>716</v>
       </c>
       <c r="I5">
         <v>100</v>
       </c>
       <c r="J5">
-        <v>27771.25</v>
+        <v>16455.74</v>
       </c>
       <c r="K5">
-        <v>1040.74</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>11730.51</v>
+        <v>9825.690000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>16600.68</v>
+      </c>
+      <c r="C6">
+        <v>8479.719999999999</v>
+      </c>
+      <c r="D6">
+        <v>720</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1520</v>
+      </c>
+      <c r="G6">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>397.78</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+      <c r="J6">
+        <v>15382.9</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>7261.94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>16265.55</v>
+      </c>
+      <c r="C7">
+        <v>7345.49</v>
+      </c>
+      <c r="D7">
+        <v>720</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1520</v>
+      </c>
+      <c r="G7">
+        <v>30</v>
+      </c>
+      <c r="H7">
+        <v>397.78</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+      <c r="J7">
+        <v>15047.77</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>6127.71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>17406.68</v>
+      </c>
+      <c r="C8">
+        <v>7975.68</v>
+      </c>
+      <c r="D8">
+        <v>855</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1805</v>
+      </c>
+      <c r="G8">
+        <v>30</v>
+      </c>
+      <c r="H8">
+        <v>471.55</v>
+      </c>
+      <c r="I8">
+        <v>100</v>
+      </c>
+      <c r="J8">
+        <v>15980.13</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>6549.13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>17927.01</v>
+      </c>
+      <c r="C9">
+        <v>9294.23</v>
+      </c>
+      <c r="D9">
+        <v>765</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1615</v>
+      </c>
+      <c r="G9">
+        <v>30</v>
+      </c>
+      <c r="H9">
+        <v>424.25</v>
+      </c>
+      <c r="I9">
+        <v>100</v>
+      </c>
+      <c r="J9">
+        <v>16637.76</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>8004.98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>21426.87</v>
+      </c>
+      <c r="C10">
+        <v>11528.41</v>
+      </c>
+      <c r="D10">
+        <v>832.5</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1757.5</v>
+      </c>
+      <c r="G10">
+        <v>30</v>
+      </c>
+      <c r="H10">
+        <v>459.68</v>
+      </c>
+      <c r="I10">
+        <v>100</v>
+      </c>
+      <c r="J10">
+        <v>18801.28</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>10136.23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>16521</v>
+      </c>
+      <c r="C11">
+        <v>7955.5</v>
+      </c>
+      <c r="D11">
+        <v>720</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1520</v>
+      </c>
+      <c r="G11">
+        <v>30</v>
+      </c>
+      <c r="H11">
+        <v>397.78</v>
+      </c>
+      <c r="I11">
+        <v>100</v>
+      </c>
+      <c r="J11">
+        <v>15303.22</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>6737.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>17314.01</v>
+      </c>
+      <c r="C12">
+        <v>7955.5</v>
+      </c>
+      <c r="D12">
+        <v>720</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1520</v>
+      </c>
+      <c r="G12">
+        <v>30</v>
+      </c>
+      <c r="H12">
+        <v>397.78</v>
+      </c>
+      <c r="I12">
+        <v>100</v>
+      </c>
+      <c r="J12">
+        <v>16096.23</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>6737.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>20565.9</v>
+      </c>
+      <c r="C13">
+        <v>9963.91</v>
+      </c>
+      <c r="D13">
+        <v>855</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1805</v>
+      </c>
+      <c r="G13">
+        <v>30</v>
+      </c>
+      <c r="H13">
+        <v>472.18</v>
+      </c>
+      <c r="I13">
+        <v>100</v>
+      </c>
+      <c r="J13">
+        <v>19138.72</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>8536.73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>20203.66</v>
+      </c>
+      <c r="C14">
+        <v>12500</v>
+      </c>
+      <c r="D14">
+        <v>900</v>
+      </c>
+      <c r="E14">
+        <v>225</v>
+      </c>
+      <c r="F14">
+        <v>1900</v>
+      </c>
+      <c r="G14">
+        <v>30</v>
+      </c>
+      <c r="H14">
+        <v>625</v>
+      </c>
+      <c r="I14">
+        <v>100</v>
+      </c>
+      <c r="J14">
+        <v>18353.66</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>10650</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <v>15668.29</v>
+      </c>
+      <c r="C15">
+        <v>6070.82</v>
+      </c>
+      <c r="D15">
+        <v>720</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1520</v>
+      </c>
+      <c r="G15">
+        <v>30</v>
+      </c>
+      <c r="H15">
+        <v>397.78</v>
+      </c>
+      <c r="I15">
+        <v>100</v>
+      </c>
+      <c r="J15">
+        <v>14450.51</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>4853.04</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>15982.17</v>
+      </c>
+      <c r="C16">
+        <v>7950.42</v>
+      </c>
+      <c r="D16">
+        <v>720</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1520</v>
+      </c>
+      <c r="G16">
+        <v>30</v>
+      </c>
+      <c r="H16">
+        <v>397.78</v>
+      </c>
+      <c r="I16">
+        <v>100</v>
+      </c>
+      <c r="J16">
+        <v>14764.39</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>6732.64</v>
       </c>
     </row>
   </sheetData>
